--- a/doc/23_プログラム設計/ER図.xlsx
+++ b/doc/23_プログラム設計/ER図.xlsx
@@ -14,11 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ER図</t>
     <rPh sb="2" eb="3">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -72,9 +79,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -98,13 +106,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -192,13 +200,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -414,13 +422,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -694,15 +702,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>87842</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>5292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>518584</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -711,8 +719,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2886075" y="4629150"/>
-          <a:ext cx="1114425" cy="1981200"/>
+          <a:off x="2871259" y="5593292"/>
+          <a:ext cx="1118658" cy="1955800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -810,6 +818,16 @@
             </a:rPr>
             <a:t>C_ID</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P_ID</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
             <a:t> </a:t>
@@ -907,15 +925,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>277283</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>86783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>17992</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>124883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -924,8 +942,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4248150" y="4629150"/>
-          <a:ext cx="1114425" cy="1581150"/>
+          <a:off x="4436533" y="8045450"/>
+          <a:ext cx="1116542" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1060,10 +1078,7 @@
             </a:rPr>
             <a:t>P_ID</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t> </a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
         </a:p>
         <a:p>
           <a:r>
@@ -1092,13 +1107,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1278,13 +1293,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1442,13 +1457,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1637,28 +1652,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
+      <xdr:colOff>647171</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4764</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>86783</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="カギ線コネクタ 10"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
+          <a:stCxn id="5" idx="2"/>
           <a:endCxn id="6" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3464719" y="3288505"/>
-          <a:ext cx="1257301" cy="1423988"/>
+          <a:off x="3964517" y="7015163"/>
+          <a:ext cx="496358" cy="1564216"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1690,13 +1705,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>242888</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1740,66 +1755,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666753</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>14289</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="カギ線コネクタ 22"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2797970" y="3983831"/>
-          <a:ext cx="1257301" cy="33336"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>566738</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>576263</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1845,13 +1809,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1897,13 +1861,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>214314</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1949,13 +1913,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2108,6 +2072,186 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="1009650"/>
+          <a:ext cx="1362075" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザー情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="1000125"/>
+          <a:ext cx="1362075" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>記事情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>639233</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647171</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>5292</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="カギ線コネクタ 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2803789" y="4966493"/>
+          <a:ext cx="1245660" cy="7938"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2400,23 +2544,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>42431</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/23_プログラム設計/ER図.xlsx
+++ b/doc/23_プログラム設計/ER図.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="1" r:id="rId1"/>
+    <sheet name="更新履歴" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>ER図</t>
     <rPh sb="2" eb="3">
@@ -29,11 +30,68 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>更新日付</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿者</t>
+    <rPh sb="0" eb="3">
+      <t>トウコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>樽谷</t>
+    <rPh sb="0" eb="1">
+      <t>タル</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>タニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加：おすすめ記事</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -67,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,14 +133,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -823,7 +893,7 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>P_ID</a:t>
@@ -1105,16 +1175,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13759</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>211668</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>48683</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1123,8 +1193,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5553075" y="4629150"/>
-          <a:ext cx="1724025" cy="1581150"/>
+          <a:off x="4860926" y="5598583"/>
+          <a:ext cx="1573742" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1291,16 +1361,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>26459</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>27517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>455083</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>65617</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1309,8 +1379,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9534525" y="4667250"/>
-          <a:ext cx="1724025" cy="1581150"/>
+          <a:off x="8313209" y="5615517"/>
+          <a:ext cx="1116541" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1455,16 +1525,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>503768</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>465669</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>55033</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1473,8 +1543,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7581900" y="4667250"/>
-          <a:ext cx="1724025" cy="1581150"/>
+          <a:off x="6726768" y="5604933"/>
+          <a:ext cx="1337734" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1518,7 +1588,7 @@
             </a:rPr>
             <a:t>良いね</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -1704,15 +1774,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>639233</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>242888</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>112714</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>10582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1724,8 +1794,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4269581" y="2483642"/>
-          <a:ext cx="1257301" cy="3033713"/>
+          <a:off x="3909748" y="3860533"/>
+          <a:ext cx="1250951" cy="2225147"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1808,15 +1878,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>639234</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>109538</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>584731</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>27516</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1828,8 +1898,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6241256" y="511967"/>
-          <a:ext cx="1295401" cy="7015163"/>
+          <a:off x="5513123" y="2257159"/>
+          <a:ext cx="1267885" cy="5448830"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1860,15 +1930,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
+      <xdr:colOff>639233</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>214314</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>484718</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>16932</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1880,8 +1950,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5264944" y="1488280"/>
-          <a:ext cx="1295401" cy="5062538"/>
+          <a:off x="4780492" y="2989789"/>
+          <a:ext cx="1257301" cy="3972985"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2252,6 +2322,123 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>201083</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>629707</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6424083" y="8053916"/>
+          <a:ext cx="1116541" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>おすすめ記事</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>post_pickup</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>----------------</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PPU_ID</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>P_ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2547,7 +2734,7 @@
   <dimension ref="B2:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2565,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>42431</v>
+        <v>42436</v>
       </c>
     </row>
   </sheetData>
@@ -2574,4 +2761,59 @@
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>42431</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>42436</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/23_プログラム設計/ER図.xlsx
+++ b/doc/23_プログラム設計/ER図.xlsx
@@ -251,6 +251,33 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>U_NAME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>U_EMAIL</a:t>
           </a:r>
@@ -276,8 +303,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -286,8 +313,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="3448050"/>
-          <a:ext cx="1114425" cy="2190750"/>
+          <a:off x="706967" y="4421717"/>
+          <a:ext cx="1116541" cy="1674283"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -404,22 +431,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>U_NAME</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t> </a:t>
-          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
@@ -771,16 +782,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>87842</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>5292</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>34927</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>58209</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>518584</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>465668</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>151342</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -789,7 +800,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2871259" y="5593292"/>
+          <a:off x="3506260" y="5138209"/>
           <a:ext cx="1118658" cy="1955800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -994,16 +1005,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>277283</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>86783</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>23283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>17992</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>124883</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>462491</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>61383</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1012,7 +1023,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4436533" y="8045450"/>
+          <a:off x="3505199" y="7473950"/>
           <a:ext cx="1116542" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1175,16 +1186,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>13759</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>659343</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>211668</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>48683</xdr:rowOff>
+      <xdr:colOff>169335</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1193,7 +1204,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4860926" y="5598583"/>
+          <a:off x="4818593" y="5143500"/>
           <a:ext cx="1573742" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1361,16 +1372,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>26459</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>27517</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>672043</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>80434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>455083</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>65617</xdr:rowOff>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1379,7 +1390,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8313209" y="5615517"/>
+          <a:off x="8270876" y="5160434"/>
           <a:ext cx="1116541" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1526,15 +1537,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>503768</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:colOff>461435</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>465669</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>55033</xdr:rowOff>
+      <xdr:colOff>423336</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1543,7 +1554,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6726768" y="5604933"/>
+          <a:off x="6684435" y="5149850"/>
           <a:ext cx="1337734" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1721,16 +1732,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>647171</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>592138</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>151342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>86783</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594257</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>23283</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1741,9 +1752,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3964517" y="7015163"/>
-          <a:ext cx="496358" cy="1564216"/>
+        <a:xfrm rot="5400000">
+          <a:off x="3874560" y="7282920"/>
+          <a:ext cx="379941" cy="2119"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1776,13 +1787,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>639233</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>112714</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>10582</xdr:rowOff>
+      <xdr:colOff>70381</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1794,8 +1805,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3909748" y="3860533"/>
-          <a:ext cx="1250951" cy="2225147"/>
+          <a:off x="4116123" y="3654159"/>
+          <a:ext cx="795868" cy="2182814"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1826,13 +1837,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>566738</xdr:colOff>
+      <xdr:colOff>567796</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>576263</xdr:colOff>
+      <xdr:colOff>577321</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
@@ -1846,8 +1857,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="762001" y="2947987"/>
-          <a:ext cx="990599" cy="9525"/>
+          <a:off x="771526" y="3928004"/>
+          <a:ext cx="977899" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1878,15 +1889,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>639234</xdr:colOff>
+      <xdr:colOff>639232</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>584731</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>27516</xdr:rowOff>
+      <xdr:colOff>542396</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>80434</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1898,8 +1909,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5513123" y="2257159"/>
-          <a:ext cx="1267885" cy="5448830"/>
+          <a:off x="5719497" y="2050784"/>
+          <a:ext cx="812802" cy="5406497"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1932,13 +1943,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>639233</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>484718</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>16932</xdr:rowOff>
+      <xdr:colOff>442385</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1950,8 +1961,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4780492" y="2989789"/>
-          <a:ext cx="1257301" cy="3972985"/>
+          <a:off x="4986867" y="2783415"/>
+          <a:ext cx="802218" cy="3930652"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1981,16 +1992,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>52917</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>46567</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1999,8 +2010,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="7048500"/>
-          <a:ext cx="1724025" cy="1581150"/>
+          <a:off x="4159250" y="11015134"/>
+          <a:ext cx="1428750" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2154,8 +2165,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2164,32 +2175,23 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="1009650"/>
-          <a:ext cx="1362075" cy="542925"/>
+          <a:off x="697442" y="999067"/>
+          <a:ext cx="1366308" cy="345016"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -2200,9 +2202,18 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>ユーザー情報</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2218,7 +2229,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2228,32 +2239,23 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2752725" y="1000125"/>
-          <a:ext cx="1362075" cy="542925"/>
+          <a:off x="2759075" y="989542"/>
+          <a:ext cx="1359958" cy="365125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -2264,9 +2266,18 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>記事情報</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2277,13 +2288,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>639233</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>114298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>647171</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>5292</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594256</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>58208</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2295,8 +2306,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2803789" y="4966493"/>
-          <a:ext cx="1245660" cy="7938"/>
+          <a:off x="3348831" y="4421450"/>
+          <a:ext cx="790577" cy="642939"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2326,16 +2337,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>201083</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>629707</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>439208</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2344,7 +2355,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6424083" y="8053916"/>
+          <a:off x="698500" y="11006666"/>
           <a:ext cx="1116541" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2434,6 +2445,134 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>P_ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11642</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4180417" y="10530417"/>
+          <a:ext cx="1366308" cy="345016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コード情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>21166</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11641</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="709083" y="10488084"/>
+          <a:ext cx="1366308" cy="345016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>管理情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>】</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2734,7 +2873,7 @@
   <dimension ref="B2:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
